--- a/Miscellania.xlsx
+++ b/Miscellania.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Estudos\PosCD\Projeto Aplicado\Dados Coletados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F33265-E9DA-4BE2-BDE5-C2683E7C8914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1DC1AF-B679-43D8-BAC5-35DAB0B0DB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
   <si>
     <t>Performance</t>
   </si>
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>0.4</t>
-  </si>
-  <si>
-    <t>Squad Total</t>
   </si>
   <si>
     <t>BRA</t>
@@ -1203,7 +1200,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,10 +1322,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1392,10 +1389,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1459,10 +1456,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -1529,7 +1526,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -1596,7 +1593,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
@@ -1730,7 +1727,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>33</v>
@@ -1797,7 +1794,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>33</v>
@@ -1864,7 +1861,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -1931,7 +1928,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
@@ -1998,7 +1995,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>37</v>
@@ -2065,7 +2062,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>50</v>
@@ -2132,7 +2129,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>37</v>
@@ -2199,7 +2196,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
@@ -2266,7 +2263,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -2333,7 +2330,7 @@
         <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
@@ -2400,7 +2397,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>30</v>
@@ -2467,7 +2464,7 @@
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>33</v>
@@ -2534,7 +2531,7 @@
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>33</v>
@@ -2601,7 +2598,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
@@ -2668,7 +2665,7 @@
         <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>33</v>
@@ -2735,7 +2732,7 @@
         <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
@@ -2802,7 +2799,7 @@
         <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>37</v>
@@ -2869,7 +2866,7 @@
         <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>33</v>
@@ -2936,7 +2933,7 @@
         <v>77</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>33</v>
@@ -3003,7 +3000,7 @@
         <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>37</v>
@@ -3070,7 +3067,7 @@
         <v>81</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>37</v>
@@ -3137,7 +3134,7 @@
         <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>37</v>
@@ -3204,7 +3201,7 @@
         <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>33</v>
@@ -3271,7 +3268,7 @@
         <v>87</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>37</v>
@@ -3338,7 +3335,7 @@
         <v>88</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>50</v>
@@ -3405,7 +3402,7 @@
         <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>37</v>
@@ -3468,82 +3465,27 @@
       <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="5">
-        <f>AVERAGE(D3:D34)</f>
-        <v>26.90625</v>
-      </c>
-      <c r="E35" s="2">
-        <v>38</v>
-      </c>
-      <c r="F35" s="2">
-        <f>SUM(F3:F34)</f>
-        <v>79</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" ref="G35:H35" si="1">SUM(G3:G34)</f>
-        <v>9</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" ref="I35" si="2">SUM(I3:I34)</f>
-        <v>431</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" ref="J35" si="3">SUM(J3:J34)</f>
-        <v>545</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" ref="K35" si="4">SUM(K3:K34)</f>
-        <v>59</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" ref="L35" si="5">SUM(L3:L34)</f>
-        <v>713</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" ref="M35" si="6">SUM(M3:M34)</f>
-        <v>299</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" ref="N35" si="7">SUM(N3:N34)</f>
-        <v>311</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" ref="O35" si="8">SUM(O3:O34)</f>
-        <v>4</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" ref="P35" si="9">SUM(P3:P34)</f>
-        <v>3</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" ref="Q35" si="10">SUM(Q3:Q34)</f>
-        <v>1</v>
-      </c>
-      <c r="R35" s="2">
-        <f t="shared" ref="R35" si="11">SUM(R3:R34)</f>
-        <v>1785</v>
-      </c>
-      <c r="S35" s="2">
-        <f t="shared" ref="S35" si="12">SUM(S3:S34)</f>
-        <v>376</v>
-      </c>
-      <c r="T35" s="2">
-        <f t="shared" ref="T35" si="13">SUM(T3:T34)</f>
-        <v>428</v>
-      </c>
-      <c r="U35" s="3">
-        <f>S35/(S35+T35)</f>
-        <v>0.46766169154228854</v>
-      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="3"/>
       <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
